--- a/biology/Botanique/The_Journal_of_Insectivorous_Plant_Society/The_Journal_of_Insectivorous_Plant_Society.xlsx
+++ b/biology/Botanique/The_Journal_of_Insectivorous_Plant_Society/The_Journal_of_Insectivorous_Plant_Society.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Journal of Insectivorous Plant Society, dont le titre officiel en japonais est 食虫植物研究会々誌 (Shokuchūshokubutsu kenkyū-kai kaishi), est un périodique scientifique trimestriel japonais consacré aux plantes carnivores et publié par la Société des plantes insectivores. Cette revue a été fondée en janvier 1950 et paraît en format A4 depuis 2010. Elle publie environ 120 pages par an. Elle est sous-titrée en anglais depuis avril 1986, bien qu'elle soit publiée en japonais. Quelques résumés paraissent toutefois en anglais.
@@ -513,25 +525,130 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La revue a publié les descriptions des taxons suivants concernant les genres Nepenthes et Utricularia :
-Nepenthes
-Nepenthes eymae (en tant que N. eymai)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue a publié les descriptions des taxons suivants concernant les genres Nepenthes et Utricularia :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The_Journal_of_Insectivorous_Plant_Society</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Journal_of_Insectivorous_Plant_Society</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nepenthes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nepenthes eymae (en tant que N. eymai)
 Nepenthes × ferrugineomarginata
 Nepenthes × kinabaluensis
 Nepenthes × kuchingensis
 Nepenthes maxima f. undulata
 Nepenthes mindanaoensis
 Nepenthes peltata
-Nepenthes × pyriformis (en tant qu'espèce)[2]
-Nepenthes rubromaculata[1]
-Nepenthes saranganiensis
-Utricularia
-Utricularia linearis[3]
-Utricularia ramosissima[4]
-Cultivars
-La revue a publié également les descriptions des cultivars de Nepenthes suivants recensés dans la série 'Koso' par K. Kawase[5].
+Nepenthes × pyriformis (en tant qu'espèce)
+Nepenthes rubromaculata
+Nepenthes saranganiensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Journal_of_Insectivorous_Plant_Society</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Journal_of_Insectivorous_Plant_Society</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Utricularia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Utricularia linearis
+Utricularia ramosissima</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Journal_of_Insectivorous_Plant_Society</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Journal_of_Insectivorous_Plant_Society</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La revue a publié également les descriptions des cultivars de Nepenthes suivants recensés dans la série 'Koso' par K. Kawase.
 Nepenthes 'Accentual Koto'
 Nepenthes 'Dashy Koto'
 Nepenthes 'Dinkum Koto'
